--- a/combined_matched_data.xlsx
+++ b/combined_matched_data.xlsx
@@ -629,7 +629,7 @@
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Nurse Joy</t>
+          <t>None</t>
         </is>
       </c>
     </row>
